--- a/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
@@ -5,19 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B6981-2818-43B8-AEA8-0FFCF9EB93DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42927D-5AAB-4DE1-98D1-40748D785E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="TransactionActivity" sheetId="12" r:id="rId2"/>
-    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="xxTransactionActivity" sheetId="12" r:id="rId2"/>
+    <sheet name="TransactionActivity" sheetId="13" r:id="rId3"/>
+    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TransactionActivity!$A$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
   <si>
     <t>PostingDate</t>
   </si>
@@ -301,7 +305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +316,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -345,7 +355,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -375,6 +385,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -382,7 +404,16 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1202,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A9CC0-A1B0-44B9-AC56-19A480FED1A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,6 +2353,447 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D12F6-B29D-4EC9-9609-B26D1F8248BC}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B2" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="18">
+        <v>18184.289999999997</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B3" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="18">
+        <v>18184.289999999997</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B4" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="18">
+        <v>9555.2599999999984</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B5" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1120</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B6" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="18">
+        <v>35564.009999999995</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B7" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6">
+        <v>170.38</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B8" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6">
+        <v>170.38</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B9" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6454.12</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="6">
+        <v>751.35</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>45688</v>
+      </c>
+      <c r="B11" s="16">
+        <v>45658</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6">
+        <v>23858.09</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B12" s="20">
+        <v>45674</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="23">
+        <v>-18184.29</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B13" s="20">
+        <v>45682</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="23">
+        <v>-18712.476999999999</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-9555.26</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B15" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="23">
+        <v>-1120</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B16" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="23">
+        <v>-35564.01</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B17" s="20">
+        <v>45674</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="24">
+        <v>-596.21</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B18" s="20">
+        <v>45682</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="24">
+        <v>-30</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B19" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-8041.81</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B20" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="24">
+        <v>-913.13</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B21" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="24">
+        <v>-28995.42</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2629,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:O25"/>
   <sheetViews>

--- a/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42927D-5AAB-4DE1-98D1-40748D785E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FA6E6-9307-4593-B5A6-D1E0CD531E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="xxTransactionActivity" sheetId="12" r:id="rId2"/>
-    <sheet name="TransactionActivity" sheetId="13" r:id="rId3"/>
+    <sheet name="TransactionActivity" sheetId="12" r:id="rId2"/>
+    <sheet name="xxTransactionActivity" sheetId="13" r:id="rId3"/>
     <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TransactionActivity!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">xxTransactionActivity!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -404,16 +404,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1233,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A9CC0-A1B0-44B9-AC56-19A480FED1A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D12F6-B29D-4EC9-9609-B26D1F8248BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FA6E6-9307-4593-B5A6-D1E0CD531E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B351B1C-C9FF-42C2-8C2D-70F4F39F53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="TransactionActivity" sheetId="12" r:id="rId2"/>
-    <sheet name="xxTransactionActivity" sheetId="13" r:id="rId3"/>
+    <sheet name="xxxTransactionActivity" sheetId="12" r:id="rId2"/>
+    <sheet name="TransactionActivity" sheetId="13" r:id="rId3"/>
     <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">xxTransactionActivity!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TransactionActivity!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1224,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A9CC0-A1B0-44B9-AC56-19A480FED1A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D12F6-B29D-4EC9-9609-B26D1F8248BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/ActivityData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B351B1C-C9FF-42C2-8C2D-70F4F39F53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9590231-1EDD-4E06-9CA3-C819F82A6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="xxxTransactionActivity" sheetId="12" r:id="rId2"/>
-    <sheet name="TransactionActivity" sheetId="13" r:id="rId3"/>
+    <sheet name="TransactionActivity" sheetId="12" r:id="rId2"/>
+    <sheet name="xxTransactionActivity" sheetId="13" r:id="rId3"/>
     <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TransactionActivity!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">xxTransactionActivity!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A9CC0-A1B0-44B9-AC56-19A480FED1A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D12F6-B29D-4EC9-9609-B26D1F8248BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
